--- a/biology/Zoologie/Aphelenchus_neglectus/Aphelenchus_neglectus.xlsx
+++ b/biology/Zoologie/Aphelenchus_neglectus/Aphelenchus_neglectus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pratylenchus neglectus est une espèce de nématodes de la famille des Pratylenchidae et du genre Pratylenchus. C'est un phytopathogène des Graminées, endoparasite de leurs racines. Il peut conduire à la formation de tuméfactions qui, après dissection, contiennent des nématodes[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pratylenchus neglectus est une espèce de nématodes de la famille des Pratylenchidae et du genre Pratylenchus. C'est un phytopathogène des Graminées, endoparasite de leurs racines. Il peut conduire à la formation de tuméfactions qui, après dissection, contiennent des nématodes.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est présente en Europe[3],[4], en Afrique du Sud, en Amérique du Nord, en Corée, en Australie[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente en Europe en Afrique du Sud, en Amérique du Nord, en Corée, en Australie.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L'espèce a été initialement classée dans le genre Aphelenchus sous le protonyme Aphelenchus neglectus par Bernhard Rensch en 1924. Elle est déplacée dans le genre Pratylenchus sous le nom Pratylenchus neglectus par Ivan Filipiev et Jacobus Schuurmans Stekhoven (d) en 1941[1],[4].
-Pratylenchus neglectus a pour synonymes[1],[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'espèce a été initialement classée dans le genre Aphelenchus sous le protonyme Aphelenchus neglectus par Bernhard Rensch en 1924. Elle est déplacée dans le genre Pratylenchus sous le nom Pratylenchus neglectus par Ivan Filipiev et Jacobus Schuurmans Stekhoven (d) en 1941,.
+Pratylenchus neglectus a pour synonymes, :
 Anguillulina neglecta (Rensch, 1924) Schneider, 1939
 Aphelenchus neglectus Rensch, 1924
 Pratylenchus capitatus Ivanova, 1968
